--- a/dados/audiencia2.xlsx
+++ b/dados/audiencia2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\AudienciaRadios\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A3A090-A051-4B8A-AF97-B2E6677C2DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABAFA18-D66C-480E-B07D-7066037A3B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B502513A-D15E-46DC-9E24-37B12075FCE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B502513A-D15E-46DC-9E24-37B12075FCE8}"/>
   </bookViews>
   <sheets>
     <sheet name="audiencia" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_2" localSheetId="0" hidden="1">audiencia!$A$1:$U$63</definedName>
+    <definedName name="DadosExternos_2" localSheetId="0" hidden="1">audiencia!$A$1:$U$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -148,9 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{439F2417-405C-4D93-9D54-8CA049B34918}" name="regiao" displayName="regiao" ref="A1:U63" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:U63" xr:uid="{439F2417-405C-4D93-9D54-8CA049B34918}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{439F2417-405C-4D93-9D54-8CA049B34918}" name="regiao" displayName="regiao" ref="A1:U69" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:U69" xr:uid="{439F2417-405C-4D93-9D54-8CA049B34918}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3FB53705-6459-44F9-B00A-88800F993316}" uniqueName="1" name="PERIODO" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{083B2CAE-69D3-4FF5-B819-D7527F6CADD4}" uniqueName="2" name="CARIACICA_VIANA" queryTableFieldId="2"/>
@@ -552,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75F561C-8E33-45FB-B2E2-566224A4913A}">
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4678,6 +4680,396 @@
         <v>3596.2</v>
       </c>
     </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B64" s="2">
+        <v>24816.85</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6296.65</v>
+      </c>
+      <c r="D64" s="2">
+        <v>34454.07</v>
+      </c>
+      <c r="E64" s="2">
+        <v>32561.72</v>
+      </c>
+      <c r="F64" s="2">
+        <v>31036.73</v>
+      </c>
+      <c r="G64" s="3">
+        <v>24974.92</v>
+      </c>
+      <c r="H64" s="3">
+        <v>6860.42</v>
+      </c>
+      <c r="I64" s="3">
+        <v>28871.200000000001</v>
+      </c>
+      <c r="J64" s="3">
+        <v>29433.06</v>
+      </c>
+      <c r="K64" s="3">
+        <v>29676.39</v>
+      </c>
+      <c r="L64">
+        <v>7334.73</v>
+      </c>
+      <c r="M64">
+        <v>2705.09</v>
+      </c>
+      <c r="N64">
+        <v>5221.2700000000004</v>
+      </c>
+      <c r="O64">
+        <v>16482.82</v>
+      </c>
+      <c r="P64">
+        <v>3825.73</v>
+      </c>
+      <c r="Q64">
+        <v>8057.91</v>
+      </c>
+      <c r="R64">
+        <v>6838.75</v>
+      </c>
+      <c r="S64">
+        <v>10687.38</v>
+      </c>
+      <c r="T64">
+        <v>19718.14</v>
+      </c>
+      <c r="U64">
+        <v>3116.14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B65" s="2">
+        <v>23630.98</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4181.46</v>
+      </c>
+      <c r="D65" s="2">
+        <v>23211.63</v>
+      </c>
+      <c r="E65" s="2">
+        <v>27922.77</v>
+      </c>
+      <c r="F65" s="2">
+        <v>26893.85</v>
+      </c>
+      <c r="G65" s="3">
+        <v>24589.56</v>
+      </c>
+      <c r="H65" s="3">
+        <v>5824.31</v>
+      </c>
+      <c r="I65" s="3">
+        <v>27513.599999999999</v>
+      </c>
+      <c r="J65" s="3">
+        <v>29333.200000000001</v>
+      </c>
+      <c r="K65" s="3">
+        <v>27907.34</v>
+      </c>
+      <c r="L65">
+        <v>6287.26</v>
+      </c>
+      <c r="M65">
+        <v>2971.14</v>
+      </c>
+      <c r="N65">
+        <v>4893.99</v>
+      </c>
+      <c r="O65">
+        <v>15425.42</v>
+      </c>
+      <c r="P65">
+        <v>3514.04</v>
+      </c>
+      <c r="Q65">
+        <v>6908.11</v>
+      </c>
+      <c r="R65">
+        <v>7144.47</v>
+      </c>
+      <c r="S65">
+        <v>9381.31</v>
+      </c>
+      <c r="T65">
+        <v>18862.52</v>
+      </c>
+      <c r="U65">
+        <v>3115.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B66" s="2">
+        <v>26867.38</v>
+      </c>
+      <c r="C66" s="2">
+        <v>6565.53</v>
+      </c>
+      <c r="D66" s="2">
+        <v>28515.91</v>
+      </c>
+      <c r="E66" s="2">
+        <v>32828.720000000001</v>
+      </c>
+      <c r="F66" s="2">
+        <v>26664</v>
+      </c>
+      <c r="G66" s="3">
+        <v>25428.86</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5742.42</v>
+      </c>
+      <c r="I66" s="3">
+        <v>28677.14</v>
+      </c>
+      <c r="J66" s="3">
+        <v>31035.919999999998</v>
+      </c>
+      <c r="K66" s="3">
+        <v>27700.91</v>
+      </c>
+      <c r="L66">
+        <v>6867.58</v>
+      </c>
+      <c r="M66">
+        <v>3175.29</v>
+      </c>
+      <c r="N66">
+        <v>4531.24</v>
+      </c>
+      <c r="O66">
+        <v>16061.79</v>
+      </c>
+      <c r="P66">
+        <v>3749.76</v>
+      </c>
+      <c r="Q66">
+        <v>6889.91</v>
+      </c>
+      <c r="R66">
+        <v>7563.43</v>
+      </c>
+      <c r="S66">
+        <v>8929.7800000000007</v>
+      </c>
+      <c r="T66">
+        <v>18712.32</v>
+      </c>
+      <c r="U66">
+        <v>3110.96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B67" s="2">
+        <v>22689.29</v>
+      </c>
+      <c r="C67" s="2">
+        <v>10463.290000000001</v>
+      </c>
+      <c r="D67" s="2">
+        <v>24974.77</v>
+      </c>
+      <c r="E67" s="2">
+        <v>28111.74</v>
+      </c>
+      <c r="F67" s="2">
+        <v>23703.87</v>
+      </c>
+      <c r="G67" s="3">
+        <v>24486.15</v>
+      </c>
+      <c r="H67" s="3">
+        <v>5870</v>
+      </c>
+      <c r="I67" s="3">
+        <v>26269.38</v>
+      </c>
+      <c r="J67" s="3">
+        <v>29734.99</v>
+      </c>
+      <c r="K67" s="3">
+        <v>25841.85</v>
+      </c>
+      <c r="L67">
+        <v>6982.89</v>
+      </c>
+      <c r="M67">
+        <v>3409.11</v>
+      </c>
+      <c r="N67">
+        <v>4559.63</v>
+      </c>
+      <c r="O67">
+        <v>14813.4</v>
+      </c>
+      <c r="P67">
+        <v>3465.22</v>
+      </c>
+      <c r="Q67">
+        <v>7534.25</v>
+      </c>
+      <c r="R67">
+        <v>6872.42</v>
+      </c>
+      <c r="S67">
+        <v>7704.25</v>
+      </c>
+      <c r="T67">
+        <v>16726.61</v>
+      </c>
+      <c r="U67">
+        <v>4101.74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B68" s="2">
+        <v>20390.89</v>
+      </c>
+      <c r="C68" s="2">
+        <v>7120.23</v>
+      </c>
+      <c r="D68" s="2">
+        <v>23350.29</v>
+      </c>
+      <c r="E68" s="2">
+        <v>32433.16</v>
+      </c>
+      <c r="F68" s="2">
+        <v>27214.95</v>
+      </c>
+      <c r="G68" s="3">
+        <v>23300.3</v>
+      </c>
+      <c r="H68" s="3">
+        <v>7050.59</v>
+      </c>
+      <c r="I68" s="3">
+        <v>26145.85</v>
+      </c>
+      <c r="J68" s="3">
+        <v>31390.7</v>
+      </c>
+      <c r="K68" s="3">
+        <v>25839.18</v>
+      </c>
+      <c r="L68">
+        <v>7473.95</v>
+      </c>
+      <c r="M68">
+        <v>3259.02</v>
+      </c>
+      <c r="N68">
+        <v>4520.67</v>
+      </c>
+      <c r="O68">
+        <v>14893.77</v>
+      </c>
+      <c r="P68">
+        <v>3025.38</v>
+      </c>
+      <c r="Q68">
+        <v>7690.34</v>
+      </c>
+      <c r="R68">
+        <v>7335.12</v>
+      </c>
+      <c r="S68">
+        <v>7955.39</v>
+      </c>
+      <c r="T68">
+        <v>17550.41</v>
+      </c>
+      <c r="U68">
+        <v>4175.53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B69" s="2">
+        <v>29892.43</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6367.88</v>
+      </c>
+      <c r="D69" s="2">
+        <v>26904.32</v>
+      </c>
+      <c r="E69" s="2">
+        <v>27040.91</v>
+      </c>
+      <c r="F69" s="2">
+        <v>24656.94</v>
+      </c>
+      <c r="G69" s="3">
+        <v>23814.04</v>
+      </c>
+      <c r="H69" s="3">
+        <v>6898.94</v>
+      </c>
+      <c r="I69" s="3">
+        <v>25403.97</v>
+      </c>
+      <c r="J69" s="3">
+        <v>29506.14</v>
+      </c>
+      <c r="K69" s="3">
+        <v>25077.99</v>
+      </c>
+      <c r="L69">
+        <v>6710.28</v>
+      </c>
+      <c r="M69">
+        <v>3269.96</v>
+      </c>
+      <c r="N69">
+        <v>4198.95</v>
+      </c>
+      <c r="O69">
+        <v>15437.15</v>
+      </c>
+      <c r="P69">
+        <v>3081.37</v>
+      </c>
+      <c r="Q69">
+        <v>7963.19</v>
+      </c>
+      <c r="R69">
+        <v>6091.68</v>
+      </c>
+      <c r="S69">
+        <v>8794.14</v>
+      </c>
+      <c r="T69">
+        <v>17718.91</v>
+      </c>
+      <c r="U69">
+        <v>3678.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/dados/audiencia2.xlsx
+++ b/dados/audiencia2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\AudienciaRadios\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABAFA18-D66C-480E-B07D-7066037A3B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00852109-C657-475E-BA6C-092DDD95E732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B502513A-D15E-46DC-9E24-37B12075FCE8}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{B502513A-D15E-46DC-9E24-37B12075FCE8}"/>
   </bookViews>
   <sheets>
     <sheet name="audiencia" sheetId="3" r:id="rId1"/>
@@ -119,6 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-416]mmm\-yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,12 +155,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -208,10 +214,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{439F2417-405C-4D93-9D54-8CA049B34918}" name="regiao" displayName="regiao" ref="A1:U69" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:U69" xr:uid="{439F2417-405C-4D93-9D54-8CA049B34918}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{439F2417-405C-4D93-9D54-8CA049B34918}" name="regiao" displayName="regiao" ref="A1:U70" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:U69" xr:uid="{439F2417-405C-4D93-9D54-8CA049B34918}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <dateGroupItem year="2023" dateTimeGrouping="year"/>
+        <dateGroupItem year="2022" dateTimeGrouping="year"/>
+        <dateGroupItem year="2021" dateTimeGrouping="year"/>
+        <dateGroupItem year="2020" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{3FB53705-6459-44F9-B00A-88800F993316}" uniqueName="1" name="PERIODO" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3FB53705-6459-44F9-B00A-88800F993316}" uniqueName="1" name="PERIODO" queryTableFieldId="1" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{083B2CAE-69D3-4FF5-B819-D7527F6CADD4}" uniqueName="2" name="CARIACICA_VIANA" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{1C6ED169-1921-4456-9705-0615FF20CD8D}" uniqueName="3" name="GUARAPARI" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{A6A5B3D1-2218-4BC4-93E1-6C1A32EF9C89}" uniqueName="4" name="SERRA" queryTableFieldId="4"/>
@@ -221,7 +237,9 @@
     <tableColumn id="8" xr3:uid="{6B1138C6-ED44-494A-ACFF-0DC8BD7F19B7}" uniqueName="8" name="GUARAPARI_3M" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{7132E81A-4B2D-4464-8835-410D6E052BB6}" uniqueName="9" name="SERRA_3M" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{8FE40E5F-05FE-44E6-B263-A5625A9DB956}" uniqueName="10" name="VILA_VELHA_3M" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{AA33DEBD-84A6-4307-B227-1E471E439475}" uniqueName="11" name="VITORIA_3M" queryTableFieldId="11"/>
+    <tableColumn id="11" xr3:uid="{AA33DEBD-84A6-4307-B227-1E471E439475}" uniqueName="11" name="VITORIA_3M" totalsRowFunction="custom" queryTableFieldId="11">
+      <totalsRowFormula>MEDIAN(K2:K61)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="13" xr3:uid="{C53B62C3-FB42-4624-803B-88D09547E268}" uniqueName="13" name="RADIO ANTENA 1" queryTableFieldId="13"/>
     <tableColumn id="14" xr3:uid="{70E122E6-9646-4993-9E7F-52089218C87B}" uniqueName="14" name=" RADIO CBN" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{F48B2CB6-1296-4464-AD4F-8CCA056F299F}" uniqueName="15" name="TRIBUNA" queryTableFieldId="15"/>
@@ -554,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75F561C-8E33-45FB-B2E2-566224A4913A}">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +604,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2211,7 +2229,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>44562</v>
       </c>
       <c r="B26">
@@ -2276,7 +2294,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>44593</v>
       </c>
       <c r="B27">
@@ -2341,7 +2359,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>44621</v>
       </c>
       <c r="B28">
@@ -2406,7 +2424,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>44652</v>
       </c>
       <c r="B29">
@@ -2471,7 +2489,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>44682</v>
       </c>
       <c r="B30">
@@ -2536,7 +2554,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>44713</v>
       </c>
       <c r="B31">
@@ -2601,7 +2619,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>44743</v>
       </c>
       <c r="B32">
@@ -2666,7 +2684,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>44774</v>
       </c>
       <c r="B33">
@@ -2731,7 +2749,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>44805</v>
       </c>
       <c r="B34">
@@ -2796,7 +2814,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>44835</v>
       </c>
       <c r="B35">
@@ -2861,7 +2879,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>44866</v>
       </c>
       <c r="B36">
@@ -2926,7 +2944,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>44896</v>
       </c>
       <c r="B37">
@@ -2991,7 +3009,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>44927</v>
       </c>
       <c r="B38">
@@ -3056,7 +3074,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>44958</v>
       </c>
       <c r="B39">
@@ -3121,7 +3139,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>44986</v>
       </c>
       <c r="B40">
@@ -3186,7 +3204,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>45017</v>
       </c>
       <c r="B41">
@@ -3251,7 +3269,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>45047</v>
       </c>
       <c r="B42">
@@ -3316,7 +3334,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>45078</v>
       </c>
       <c r="B43">
@@ -3381,7 +3399,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>45108</v>
       </c>
       <c r="B44">
@@ -3446,7 +3464,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>45139</v>
       </c>
       <c r="B45">
@@ -3511,7 +3529,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>45170</v>
       </c>
       <c r="B46">
@@ -3576,7 +3594,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>45200</v>
       </c>
       <c r="B47">
@@ -3641,7 +3659,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>45231</v>
       </c>
       <c r="B48">
@@ -3706,7 +3724,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>45261</v>
       </c>
       <c r="B49">
@@ -3771,7 +3789,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>45292</v>
       </c>
       <c r="B50">
@@ -3836,7 +3854,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>45323</v>
       </c>
       <c r="B51">
@@ -3901,7 +3919,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>45352</v>
       </c>
       <c r="B52">
@@ -3966,7 +3984,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>45383</v>
       </c>
       <c r="B53">
@@ -4031,7 +4049,7 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>45413</v>
       </c>
       <c r="B54">
@@ -4096,7 +4114,7 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>45444</v>
       </c>
       <c r="B55">
@@ -4161,7 +4179,7 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>45474</v>
       </c>
       <c r="B56">
@@ -4226,7 +4244,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>45505</v>
       </c>
       <c r="B57">
@@ -4291,7 +4309,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>45536</v>
       </c>
       <c r="B58">
@@ -4356,7 +4374,7 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>45566</v>
       </c>
       <c r="B59">
@@ -4421,7 +4439,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>45597</v>
       </c>
       <c r="B60">
@@ -4486,7 +4504,7 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>45627</v>
       </c>
       <c r="B61">
@@ -4550,7 +4568,7 @@
         <v>3252.51</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45658</v>
       </c>
@@ -4615,7 +4633,7 @@
         <v>2433.21</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45689</v>
       </c>
@@ -4680,7 +4698,7 @@
         <v>3596.2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45717</v>
       </c>
@@ -4699,19 +4717,19 @@
       <c r="F64" s="2">
         <v>31036.73</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64">
         <v>24974.92</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64">
         <v>6860.42</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64">
         <v>28871.200000000001</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64">
         <v>29433.06</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64">
         <v>29676.39</v>
       </c>
       <c r="L64">
@@ -4745,7 +4763,7 @@
         <v>3116.14</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45748</v>
       </c>
@@ -4764,19 +4782,19 @@
       <c r="F65" s="2">
         <v>26893.85</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65">
         <v>24589.56</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65">
         <v>5824.31</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65">
         <v>27513.599999999999</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65">
         <v>29333.200000000001</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65">
         <v>27907.34</v>
       </c>
       <c r="L65">
@@ -4810,7 +4828,7 @@
         <v>3115.04</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45778</v>
       </c>
@@ -4829,19 +4847,19 @@
       <c r="F66" s="2">
         <v>26664</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66">
         <v>25428.86</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66">
         <v>5742.42</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66">
         <v>28677.14</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66">
         <v>31035.919999999998</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66">
         <v>27700.91</v>
       </c>
       <c r="L66">
@@ -4875,7 +4893,7 @@
         <v>3110.96</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45809</v>
       </c>
@@ -4894,19 +4912,19 @@
       <c r="F67" s="2">
         <v>23703.87</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67">
         <v>24486.15</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67">
         <v>5870</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67">
         <v>26269.38</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67">
         <v>29734.99</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67">
         <v>25841.85</v>
       </c>
       <c r="L67">
@@ -4940,7 +4958,7 @@
         <v>4101.74</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45839</v>
       </c>
@@ -4959,19 +4977,19 @@
       <c r="F68" s="2">
         <v>27214.95</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68">
         <v>23300.3</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68">
         <v>7050.59</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68">
         <v>26145.85</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68">
         <v>31390.7</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68">
         <v>25839.18</v>
       </c>
       <c r="L68">
@@ -5005,7 +5023,7 @@
         <v>4175.53</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45870</v>
       </c>
@@ -5024,19 +5042,19 @@
       <c r="F69" s="2">
         <v>24656.94</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69">
         <v>23814.04</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69">
         <v>6898.94</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69">
         <v>25403.97</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69">
         <v>29506.14</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69">
         <v>25077.99</v>
       </c>
       <c r="L69">
@@ -5068,6 +5086,13 @@
       </c>
       <c r="U69">
         <v>3678.07</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="K70">
+        <f>MEDIAN(K2:K61)</f>
+        <v>30515.85</v>
       </c>
     </row>
   </sheetData>
